--- a/planilhas/Prazos_e_Ciclos_Embraer.xlsx
+++ b/planilhas/Prazos_e_Ciclos_Embraer.xlsx
@@ -465,19 +465,19 @@
         <v>2020</v>
       </c>
       <c r="B2" t="n">
-        <v>291.0332186489154</v>
+        <v>295.0753466857058</v>
       </c>
       <c r="C2" t="n">
-        <v>22.12408160810799</v>
+        <v>22.43136051933171</v>
       </c>
       <c r="D2" t="n">
-        <v>59.78271780003247</v>
+        <v>39.2081063328914</v>
       </c>
       <c r="E2" t="n">
-        <v>313.1573002570233</v>
+        <v>317.5067072050375</v>
       </c>
       <c r="F2" t="n">
-        <v>253.3745824569909</v>
+        <v>278.2986008721461</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         <v>2021</v>
       </c>
       <c r="B3" t="n">
-        <v>218.8740607025379</v>
+        <v>221.9139782122953</v>
       </c>
       <c r="C3" t="n">
-        <v>18.47134475914281</v>
+        <v>18.72789121413091</v>
       </c>
       <c r="D3" t="n">
-        <v>56.21254051642231</v>
+        <v>67.7835802119571</v>
       </c>
       <c r="E3" t="n">
-        <v>237.3454054616807</v>
+        <v>240.6418694264262</v>
       </c>
       <c r="F3" t="n">
-        <v>181.1328649452584</v>
+        <v>172.8582892144692</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>2022</v>
       </c>
       <c r="B4" t="n">
-        <v>243.10404587476</v>
+        <v>246.4804909563539</v>
       </c>
       <c r="C4" t="n">
-        <v>21.16720938830789</v>
+        <v>21.46119840758994</v>
       </c>
       <c r="D4" t="n">
-        <v>80.05263252801079</v>
+        <v>79.28005899172722</v>
       </c>
       <c r="E4" t="n">
-        <v>264.2712552630679</v>
+        <v>267.9416893639438</v>
       </c>
       <c r="F4" t="n">
-        <v>184.2186227350571</v>
+        <v>188.6616303722166</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>2023</v>
       </c>
       <c r="B5" t="n">
-        <v>211.8264381359325</v>
+        <v>214.7684719989315</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0273536373547</v>
+        <v>15.23606688231796</v>
       </c>
       <c r="D5" t="n">
-        <v>66.2590916773471</v>
+        <v>67.03043013044287</v>
       </c>
       <c r="E5" t="n">
-        <v>226.8537917732872</v>
+        <v>230.0045388812495</v>
       </c>
       <c r="F5" t="n">
-        <v>160.5947000959401</v>
+        <v>162.9741087508066</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>2024</v>
       </c>
       <c r="B6" t="n">
-        <v>225.3709524914658</v>
+        <v>228.5011046094028</v>
       </c>
       <c r="C6" t="n">
-        <v>20.95406374189557</v>
+        <v>21.24509240497746</v>
       </c>
       <c r="D6" t="n">
-        <v>77.49356275785983</v>
+        <v>67.36648728855037</v>
       </c>
       <c r="E6" t="n">
-        <v>246.3250162333614</v>
+        <v>249.7461970143803</v>
       </c>
       <c r="F6" t="n">
-        <v>168.8314534755015</v>
+        <v>182.3797097258299</v>
       </c>
     </row>
   </sheetData>
